--- a/lab6_graph.xlsx
+++ b/lab6_graph.xlsx
@@ -594,34 +594,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>-901.12078124999994</c:v>
+                  <c:v>1.7890312499999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-143.54745124999994</c:v>
+                  <c:v>3.7724772500000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250.61675875000026</c:v>
+                  <c:v>5.6734592500000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>370.02592874999959</c:v>
+                  <c:v>7.4435932500000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>303.33413875000019</c:v>
+                  <c:v>9.0344952500000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>139.1954687500006</c:v>
+                  <c:v>10.39778125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-33.736001250001209</c:v>
+                  <c:v>11.48506725</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-126.80619124999885</c:v>
+                  <c:v>12.247969250000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-51.361021249997066</c:v>
+                  <c:v>12.63810325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>281.25358874999984</c:v>
+                  <c:v>12.607085250000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2257,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2296,8 +2296,8 @@
         <v>0.25</v>
       </c>
       <c r="F5">
-        <f>(-1598.54) + 3171.71 * E5 + (-1585.85) * (E5^2) + 230.87 * (E5^3)</f>
-        <v>-901.12078124999994</v>
+        <f xml:space="preserve"> 0.529 + 5.051 * E5 + (-0.012) * (E5)^2 + (-0.126) * (E5)^3</f>
+        <v>1.7890312499999999</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -2311,8 +2311,8 @@
         <v>0.65</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F14" si="0">(-1598.54) + 3171.71 * E6 + (-1585.85) * (E6^2) + 230.87 * (E6^3)</f>
-        <v>-143.54745124999994</v>
+        <f t="shared" ref="F6:F14" si="0" xml:space="preserve"> 0.529 + 5.051 * E6 + (-0.012) * (E6)^2 + (-0.126) * (E6)^3</f>
+        <v>3.7724772500000001</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>250.61675875000026</v>
+        <v>5.6734592500000005</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>370.02592874999959</v>
+        <v>7.4435932500000002</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>303.33413875000019</v>
+        <v>9.0344952500000009</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>139.1954687500006</v>
+        <v>10.39778125</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>-33.736001250001209</v>
+        <v>11.48506725</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>-126.80619124999885</v>
+        <v>12.247969250000001</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>-51.361021249997066</v>
+        <v>12.63810325</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>281.25358874999984</v>
+        <v>12.607085250000003</v>
       </c>
     </row>
   </sheetData>
